--- a/medicine/Mort/Peine_de_mort_à_Sao_Tomé-et-Principe/Peine_de_mort_à_Sao_Tomé-et-Principe.xlsx
+++ b/medicine/Mort/Peine_de_mort_à_Sao_Tomé-et-Principe/Peine_de_mort_à_Sao_Tomé-et-Principe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peine_de_mort_%C3%A0_Sao_Tom%C3%A9-et-Principe</t>
+          <t>Peine_de_mort_à_Sao_Tomé-et-Principe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine de mort à Sao Tomé-et-Principe a été abolie en 1990.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peine_de_mort_%C3%A0_Sao_Tom%C3%A9-et-Principe</t>
+          <t>Peine_de_mort_à_Sao_Tomé-et-Principe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La constitution de 1975 (première après l'indépendance) n'y fait pas référence, mais une loi de juillet 1979 prévoit la peine capitale pour le crime de « mercenarisme ». Votée à la suite d'une tentative de coup d'État, elle n'est jamais utilisée.
 L'article 21 de la constitution du 20 septembre 1990 précise que : « 1. La vie humaine est inviolable. 2. La peine de mort ne peut en aucun cas être appliquée. »
